--- a/downloaded_files/CMPS101_Tutorial-35441.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35441.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -223,6 +223,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Mohamed Abdel Aty Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ندى أحمد محمد عبد الحليم السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nada Ahmad Mohamad AbdelHalim</x:t>
   </x:si>
   <x:si>
     <x:t>1240388</x:t>
@@ -377,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -677,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1468,7 +1477,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45921.9024441319</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1496,9 +1505,11 @@
       <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.6012425926</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1521,16 +1532,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
+      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45912.6012425926</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1562,7 +1571,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1590,9 +1599,11 @@
       <x:c r="C28" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.6027669792</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1609,6 +1620,36 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s"/>
+      <x:c r="E29" s="3">
+        <x:v>45912.6027669792</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35441.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35441.xlsx
@@ -39,15 +39,6 @@
     <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
   </x:si>
   <x:si>
-    <x:t>1240020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد ياسر رمضان ابراهيم والى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240298</x:t>
   </x:si>
   <x:si>
@@ -214,6 +205,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ibrahim Elshenawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حسام الدين محمد احمد علي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammad Hossam Eldin Mohammad Ahmed Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1240185</x:t>
@@ -695,7 +695,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.730624999999996" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.270625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.330625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -807,7 +807,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45915.9767662384</x:v>
+        <x:v>45907.6670740394</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -839,7 +839,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6670740394</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -871,7 +871,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6662400463</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -903,7 +903,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6662400463</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -931,11 +931,9 @@
       <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -958,14 +956,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -997,7 +997,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1029,7 +1029,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1061,7 +1061,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45912.2725517708</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1093,7 +1093,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.2725517708</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1125,7 +1125,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1157,7 +1157,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45907.665771412</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1189,7 +1189,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1221,7 +1221,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45915.9672015856</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1253,7 +1253,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9672015856</x:v>
+        <x:v>45907.6700686343</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1285,7 +1285,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6700686343</x:v>
+        <x:v>45912.6413434028</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1317,7 +1317,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6413434028</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1349,7 +1349,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6660547801</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1381,7 +1381,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6660547801</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1413,7 +1413,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45922.4582168982</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>

--- a/downloaded_files/CMPS101_Tutorial-35441.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35441.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -37,6 +37,15 @@
   </x:si>
   <x:si>
     <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ياسر رمضان ابراهيم والى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1240298</x:t>
@@ -386,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -807,7 +816,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6670740394</x:v>
+        <x:v>45923.4810574074</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -839,7 +848,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6670740394</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -871,7 +880,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6662400463</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -903,7 +912,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6662400463</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -931,9 +940,11 @@
       <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s"/>
+      <x:c r="D7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -956,16 +967,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -997,7 +1006,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1029,7 +1038,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1061,7 +1070,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.2725517708</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1093,7 +1102,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45912.2725517708</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1125,7 +1134,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1157,7 +1166,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1189,7 +1198,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.665771412</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1221,7 +1230,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9672015856</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1253,7 +1262,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6700686343</x:v>
+        <x:v>45915.9672015856</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1285,7 +1294,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6413434028</x:v>
+        <x:v>45907.6700686343</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1317,7 +1326,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45912.6413434028</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1349,7 +1358,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6660547801</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1381,7 +1390,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.6660547801</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1413,7 +1422,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45922.4582168982</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1445,7 +1454,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45922.4582168982</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1477,7 +1486,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.9024441319</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1509,7 +1518,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45921.9024441319</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1537,9 +1546,11 @@
       <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s"/>
+      <x:c r="D26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.6012425926</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1562,16 +1573,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45912.6012425926</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1603,7 +1612,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1631,9 +1640,11 @@
       <x:c r="C29" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
+      <x:c r="D29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.6027669792</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1650,6 +1661,36 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s"/>
+      <x:c r="E30" s="3">
+        <x:v>45912.6027669792</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35441.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35441.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -232,6 +232,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Mohamed Abdel Aty Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>معاذ احمد محمد حمدي ابراهيم حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moaz Ahmed Mohamed Hamdi Ibrahim Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1240382</x:t>
@@ -395,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1518,7 +1527,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.9024441319</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1550,7 +1559,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45921.9024441319</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1578,9 +1587,11 @@
       <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
+      <x:c r="D27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.6012425926</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1603,16 +1614,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45912.6012425926</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1644,7 +1653,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1672,9 +1681,11 @@
       <x:c r="C30" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s"/>
+      <x:c r="D30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.6027669792</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1691,6 +1702,36 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s"/>
+      <x:c r="E31" s="3">
+        <x:v>45912.6027669792</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35441.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35441.xlsx
@@ -1463,7 +1463,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45922.4582168982</x:v>
+        <x:v>45924.432622338</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>

--- a/downloaded_files/CMPS101_Tutorial-35441.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35441.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -37,15 +37,6 @@
   </x:si>
   <x:si>
     <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد ياسر رمضان ابراهيم والى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1240298</x:t>
@@ -404,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -825,7 +816,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45923.4810574074</x:v>
+        <x:v>45907.6670740394</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -857,7 +848,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6670740394</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -889,7 +880,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6662400463</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -921,7 +912,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6662400463</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -949,11 +940,9 @@
       <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -976,14 +965,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1015,7 +1006,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1047,7 +1038,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1079,7 +1070,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45912.2725517708</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1111,7 +1102,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.2725517708</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1143,7 +1134,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1175,7 +1166,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45907.665771412</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1207,7 +1198,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1239,7 +1230,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45915.9672015856</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1271,7 +1262,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9672015856</x:v>
+        <x:v>45907.6700686343</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1303,7 +1294,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6700686343</x:v>
+        <x:v>45912.6413434028</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1335,7 +1326,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6413434028</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1367,7 +1358,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6660547801</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1399,7 +1390,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6660547801</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1431,7 +1422,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45924.432622338</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1463,7 +1454,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45924.432622338</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1495,7 +1486,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1527,7 +1518,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45921.9024441319</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1559,7 +1550,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.9024441319</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1587,11 +1578,9 @@
       <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45912.6012425926</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1614,14 +1603,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45912.6012425926</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1644,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1681,11 +1672,9 @@
       <x:c r="C30" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45912.6027669792</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1702,36 +1691,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s"/>
-      <x:c r="E31" s="3">
-        <x:v>45912.6027669792</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35441.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35441.xlsx
@@ -171,15 +171,6 @@
     <x:t>Omar Ahmed Abd ElRahman Ismail</x:t>
   </x:si>
   <x:si>
-    <x:t>1240101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر ايهاب عبدالفتاح عيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ehab</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240122</x:t>
   </x:si>
   <x:si>
@@ -280,6 +271,15 @@
   </x:si>
   <x:si>
     <x:t>يوسف محمد بدر الدين حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد عبدالرحمن عبدالعزيز السيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Mohamed Abdelrahman Abdelaziz Elsayed Ahmed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -703,8 +703,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="32.730624999999996" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="44.330625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="34.420625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="50.930625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -784,7 +784,7 @@
       </x:c>
       <x:c r="D2" s="2" t="s"/>
       <x:c r="E2" s="3">
-        <x:v>45909.8257649306</x:v>
+        <x:v>45927.5066766551</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -1294,7 +1294,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6413434028</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1326,7 +1326,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6660547801</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1358,7 +1358,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6660547801</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1390,7 +1390,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45924.432622338</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1422,7 +1422,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45924.432622338</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1454,7 +1454,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1486,7 +1486,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45921.9024441319</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1518,7 +1518,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.9024441319</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1546,11 +1546,9 @@
       <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
+      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45912.6012425926</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1573,14 +1571,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45912.6012425926</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1612,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1640,11 +1640,9 @@
       <x:c r="C29" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45912.6027669792</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1667,14 +1665,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45912.6027669792</x:v>
+        <x:v>45927.4645239583</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>

--- a/downloaded_files/CMPS101_Tutorial-35441.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35441.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -39,6 +39,15 @@
     <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
   </x:si>
   <x:si>
+    <x:t>1240020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ياسر رمضان ابراهيم والى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240298</x:t>
   </x:si>
   <x:si>
@@ -169,6 +178,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ahmed Abd ElRahman Ismail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فراس شريف مصطفى ابراهيم حلابه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Feras Sherif Moustafa Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1240122</x:t>
@@ -395,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -816,7 +834,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6670740394</x:v>
+        <x:v>45927.8554200231</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -848,7 +866,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6670740394</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -880,7 +898,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6662400463</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -912,7 +930,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6662400463</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -940,9 +958,11 @@
       <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s"/>
+      <x:c r="D7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -965,16 +985,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1006,7 +1024,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1038,7 +1056,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1070,7 +1088,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.2725517708</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1102,7 +1120,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45912.2725517708</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1134,7 +1152,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1166,7 +1184,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1198,7 +1216,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.665771412</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1230,7 +1248,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9672015856</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1262,7 +1280,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6700686343</x:v>
+        <x:v>45915.9672015856</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1294,7 +1312,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6700686343</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1326,7 +1344,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6660547801</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1358,7 +1376,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1390,7 +1408,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45924.432622338</x:v>
+        <x:v>45907.6660547801</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1422,7 +1440,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1454,7 +1472,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45924.432622338</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1486,7 +1504,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.9024441319</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1518,7 +1536,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1546,9 +1564,11 @@
       <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s"/>
+      <x:c r="D26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.6012425926</x:v>
+        <x:v>45921.9024441319</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,16 +1591,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1603,16 +1623,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45912.6012425926</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1640,9 +1658,11 @@
       <x:c r="C29" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
+      <x:c r="D29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.6027669792</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1665,16 +1685,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4645239583</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1691,6 +1711,68 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s"/>
+      <x:c r="E31" s="3">
+        <x:v>45912.6027669792</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45927.4645239583</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35441.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35441.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,12 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
   </x:si>
   <x:si>
     <x:t>1240020</x:t>
@@ -413,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -800,9 +794,11 @@
       <x:c r="C2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="E2" s="3">
-        <x:v>45927.5066766551</x:v>
+        <x:v>45927.8554200231</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -825,16 +821,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.8554200231</x:v>
+        <x:v>45907.6670740394</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -857,16 +853,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6670740394</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -889,16 +885,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6662400463</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -921,16 +917,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6662400463</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -953,16 +949,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -990,9 +984,11 @@
       <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
+      <x:c r="D8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1015,16 +1011,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1047,16 +1043,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1079,16 +1075,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45912.2725517708</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1111,16 +1107,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.2725517708</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1143,16 +1139,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1175,16 +1171,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45907.665771412</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1207,16 +1203,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1239,16 +1235,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45915.9672015856</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1271,16 +1267,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9672015856</x:v>
+        <x:v>45907.6700686343</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1303,16 +1299,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6700686343</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1335,16 +1331,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.6837010764</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1367,16 +1363,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6660547801</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1399,16 +1395,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6660547801</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1431,16 +1427,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45924.432622338</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1463,16 +1459,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45924.432622338</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1495,16 +1491,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1527,16 +1523,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45921.9024441319</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1559,16 +1555,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.9024441319</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1591,16 +1587,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45912.6012425926</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1628,9 +1622,11 @@
       <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.6012425926</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,16 +1649,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1685,16 +1681,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45912.6027669792</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1722,9 +1716,11 @@
       <x:c r="C31" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
+      <x:c r="D31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.6027669792</x:v>
+        <x:v>45927.4645239583</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1741,38 +1737,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45927.4645239583</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35441.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35441.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -217,6 +217,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Hossam Eldin Mohammad Ahmed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد سعد السيد محمد دبور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240185</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1468,7 +1477,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45931.5381655903</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1500,7 +1509,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1532,7 +1541,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.9024441319</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1564,7 +1573,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45921.9024441319</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1592,9 +1601,11 @@
       <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.6012425926</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1617,16 +1628,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45912.6012425926</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1658,7 +1667,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1686,9 +1695,11 @@
       <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s"/>
+      <x:c r="D30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.6027669792</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,16 +1722,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45927.4645239583</x:v>
+        <x:v>45912.6027669792</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1737,6 +1746,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45927.4645239583</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35441.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35441.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -208,15 +208,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ibrahim Elshenawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد حسام الدين محمد احمد علي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammad Hossam Eldin Mohammad Ahmed Ali</x:t>
   </x:si>
   <x:si>
     <x:t>4250193</x:t>
@@ -416,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1445,7 +1436,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45924.432622338</x:v>
+        <x:v>45931.5381655903</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1477,7 +1468,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45931.5381655903</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1509,7 +1500,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1541,7 +1532,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45921.9024441319</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1573,7 +1564,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.9024441319</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1601,11 +1592,9 @@
       <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45912.6012425926</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1628,14 +1617,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45912.6012425926</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1667,7 +1658,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1695,11 +1686,9 @@
       <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45912.6027669792</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1722,14 +1711,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45912.6027669792</x:v>
+        <x:v>45927.4645239583</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1746,38 +1737,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45927.4645239583</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35441.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35441.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,12 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
   </x:si>
   <x:si>
     <x:t>1240020</x:t>
@@ -407,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -794,11 +800,9 @@
       <x:c r="C2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
+      <x:c r="D2" s="2" t="s"/>
       <x:c r="E2" s="3">
-        <x:v>45927.8554200231</x:v>
+        <x:v>45936.5880428588</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -821,16 +825,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="D3" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6670740394</x:v>
+        <x:v>45927.8554200231</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -853,16 +857,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="D4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45907.6670740394</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -885,16 +889,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6662400463</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -917,16 +921,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="D6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6662400463</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -949,14 +953,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -984,11 +990,9 @@
       <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45907.7043355671</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1011,16 +1015,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.7043355671</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1043,16 +1047,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1075,16 +1079,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.2725517708</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1107,16 +1111,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45912.2725517708</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1139,16 +1143,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1171,16 +1175,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1203,16 +1207,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.665771412</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1235,16 +1239,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9672015856</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1267,16 +1271,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6700686343</x:v>
+        <x:v>45915.9672015856</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1299,16 +1303,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.6837010764</x:v>
+        <x:v>45907.6700686343</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1331,16 +1335,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45927.6837010764</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1363,16 +1367,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6660547801</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1395,16 +1399,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.6660547801</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1427,16 +1431,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45931.5381655903</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1459,16 +1463,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45931.5381655903</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1491,16 +1495,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1523,16 +1527,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.9024441319</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1555,16 +1559,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45921.9024441319</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1587,14 +1591,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45912.6012425926</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1622,11 +1628,9 @@
       <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45912.6012425926</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1649,16 +1653,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1681,14 +1685,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45912.6027669792</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1716,11 +1722,9 @@
       <x:c r="C31" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45927.4645239583</x:v>
+        <x:v>45912.6027669792</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1737,6 +1741,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45927.4645239583</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35441.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35441.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -214,15 +214,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ibrahim Elshenawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد سعد السيد محمد دبور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240185</x:t>
@@ -413,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1472,7 +1463,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45931.5381655903</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1504,7 +1495,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45923.9188539005</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1536,7 +1527,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45923.9188539005</x:v>
+        <x:v>45921.9024441319</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1568,7 +1559,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.9024441319</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1596,11 +1587,9 @@
       <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45912.6012425926</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1623,14 +1612,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45912.6012425926</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1653,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45915.9642383912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1690,11 +1681,9 @@
       <x:c r="C30" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45915.9642383912</x:v>
+        <x:v>45912.6027669792</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1717,14 +1706,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45912.6027669792</x:v>
+        <x:v>45927.4645239583</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1741,38 +1732,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45927.4645239583</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35441.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35441.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,7 +87,10 @@
     <x:t>1240195</x:t>
   </x:si>
   <x:si>
-    <x:t>زياد محمود حشمت سيف النصر</x:t>
+    <x:t>زياد محمود حشمت سيف النصر عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad Mahmoud Hishmat Seifelnasr Abdelraheem</x:t>
   </x:si>
   <x:si>
     <x:t>1240320</x:t>
@@ -981,7 +984,9 @@
       <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
+      <x:c r="D8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
       <x:c r="E8" s="3">
         <x:v>45907.6646548264</x:v>
       </x:c>
@@ -1006,13 +1011,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
         <x:v>45907.7043355671</x:v>
@@ -1038,13 +1043,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
         <x:v>45907.6651076736</x:v>
@@ -1070,13 +1075,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
         <x:v>45907.6651743056</x:v>
@@ -1102,13 +1107,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
         <x:v>45912.2725517708</x:v>
@@ -1134,13 +1139,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45907.6670371181</x:v>
@@ -1166,13 +1171,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45907.6656820602</x:v>
@@ -1198,13 +1203,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45907.665771412</x:v>
@@ -1230,13 +1235,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45907.6648501968</x:v>
@@ -1262,13 +1267,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45915.9672015856</x:v>
@@ -1294,13 +1299,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45907.6700686343</x:v>
@@ -1326,13 +1331,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45927.6837010764</x:v>
@@ -1358,13 +1363,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45907.6648360764</x:v>
@@ -1390,13 +1395,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45907.6660547801</x:v>
@@ -1422,13 +1427,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45907.6655096875</x:v>
@@ -1454,13 +1459,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45912.2971767014</x:v>
@@ -1486,13 +1491,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45923.9188539005</x:v>
@@ -1518,13 +1523,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45921.9024441319</x:v>
@@ -1550,13 +1555,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45907.6657957523</x:v>
@@ -1582,10 +1587,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
@@ -1612,13 +1617,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45907.6660113079</x:v>
@@ -1644,13 +1649,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45915.9642383912</x:v>
@@ -1676,10 +1681,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
@@ -1706,13 +1711,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45927.4645239583</x:v>
